--- a/RoboDK.xlsx
+++ b/RoboDK.xlsx
@@ -5202,7 +5202,7 @@
     <col min="7" max="7" style="10" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="7" t="s">
         <v>100</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="7" t="s">
         <v>100</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="7" t="s">
         <v>100</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="7" t="s">
         <v>100</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="7" t="s">
         <v>100</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="7" t="s">
         <v>100</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="7" t="s">
         <v>100</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="7" t="s">
         <v>100</v>
       </c>
